--- a/public/assets/template/video-template.xlsx
+++ b/public/assets/template/video-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\tokusatsu\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695BBB8-DE6F-4650-AD66-EC13206C4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E4F9F-7F38-4D67-B799-C9375236AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Kamen Rider</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Data Video</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -493,22 +493,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/template/video-template.xlsx
+++ b/public/assets/template/video-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\tokusatsu\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E4F9F-7F38-4D67-B799-C9375236AF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347D6A88-32E4-4475-A73C-7F3310CCC945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Kamen Rider</t>
   </si>
@@ -67,12 +67,18 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>AirDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,10 +488,11 @@
     <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -491,7 +501,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,8 +520,11 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -529,6 +542,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>26026</v>
       </c>
     </row>
   </sheetData>
